--- a/src/Nutzwetzanalyze.xlsx
+++ b/src/Nutzwetzanalyze.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.BS14.030\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.BS14.030\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -234,80 +234,80 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,261 +589,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I10"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="9" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3">
         <v>0.3</v>
       </c>
-      <c r="D4" s="25">
+      <c r="C4" s="20">
         <v>9</v>
       </c>
-      <c r="E4" s="24">
-        <f>C4*D4</f>
+      <c r="D4" s="19">
+        <f>B4*C4</f>
         <v>2.6999999999999997</v>
       </c>
-      <c r="F4" s="6">
+      <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="G4" s="6">
-        <f>C4*F4</f>
+      <c r="F4" s="4">
+        <f>B4*E4</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="H4" s="6">
+      <c r="G4" s="4">
         <v>9</v>
       </c>
-      <c r="I4" s="6">
-        <f>C4*H4</f>
+      <c r="H4" s="4">
+        <f>B4*G4</f>
         <v>2.6999999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="B5" s="6">
         <v>0.25</v>
       </c>
-      <c r="D5" s="9">
+      <c r="C5" s="7">
         <v>10</v>
       </c>
-      <c r="E5" s="9">
-        <f>C5*D5</f>
+      <c r="D5" s="7">
+        <f>B5*C5</f>
         <v>2.5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="E5" s="7">
         <v>4</v>
       </c>
-      <c r="G5" s="9">
-        <f>C5*F5</f>
+      <c r="F5" s="7">
+        <f>B5*E5</f>
         <v>1</v>
       </c>
-      <c r="H5" s="9">
+      <c r="G5" s="7">
         <v>5</v>
       </c>
-      <c r="I5" s="9">
-        <f>C5*H5</f>
+      <c r="H5" s="7">
+        <f>B5*G5</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9">
         <v>0.2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="C6" s="10">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
-        <f>C6*D6</f>
+      <c r="D6" s="10">
+        <f>B6*C6</f>
         <v>1.6</v>
       </c>
-      <c r="F6" s="12">
+      <c r="E6" s="10">
         <v>9</v>
       </c>
-      <c r="G6" s="12">
-        <f>C6*F6</f>
+      <c r="F6" s="10">
+        <f>B6*E6</f>
         <v>1.8</v>
       </c>
-      <c r="H6" s="12">
+      <c r="G6" s="10">
         <v>7</v>
       </c>
-      <c r="I6" s="12">
-        <f>C6*H6</f>
+      <c r="H6" s="10">
+        <f>B6*G6</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="B7" s="6">
         <v>0.2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
-        <f>C7*D7</f>
+      <c r="D7" s="7">
+        <f>B7*C7</f>
         <v>2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="G7" s="9">
-        <f>C7*F7</f>
+      <c r="F7" s="7">
+        <f>B7*E7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="9">
+      <c r="G7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="9">
-        <f>C7*H7</f>
+      <c r="H7" s="7">
+        <f>B7*G7</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="B8" s="12">
         <v>0.05</v>
       </c>
-      <c r="D8" s="15">
+      <c r="C8" s="13">
         <v>4</v>
       </c>
-      <c r="E8" s="15">
-        <f>C8*D8</f>
+      <c r="D8" s="13">
+        <f>B8*C8</f>
         <v>0.2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="E8" s="13">
         <v>10</v>
       </c>
-      <c r="G8" s="15">
-        <f>C8*F8</f>
+      <c r="F8" s="13">
+        <f>B8*E8</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="15">
+      <c r="G8" s="13">
         <v>8</v>
       </c>
-      <c r="I8" s="15">
-        <f>C8*H8</f>
+      <c r="H8" s="13">
+        <f>B8*G8</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:8" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="17">
-        <f>SUM(C4:C8)</f>
+      <c r="B9" s="15">
+        <f>SUM(B4:B8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
-        <f>SUM(E4:E8)</f>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17">
+        <f>SUM(D4:D8)</f>
         <v>8.9999999999999982</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19">
-        <f>SUM(G4:G8)</f>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17">
+        <f>SUM(F4:F8)</f>
         <v>6.1</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19">
-        <f>SUM(I4:I8)</f>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17">
+        <f>SUM(H4:H8)</f>
         <v>6.35</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23">
+      <c r="B10" s="25"/>
+      <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22">
+        <v>3</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23">
-        <v>3</v>
-      </c>
-      <c r="I10" s="23"/>
+      <c r="H10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>